--- a/Workbooks/EN/Packages.xlsx
+++ b/Workbooks/EN/Packages.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\UsingFolders\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F837F07-E587-4927-AD73-A3BB54020767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E44CC-FD6E-4628-AA0C-3052810CE00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create" sheetId="4" r:id="rId1"/>
+    <sheet name="Get" sheetId="4" r:id="rId1"/>
     <sheet name="Delete" sheetId="2" r:id="rId2"/>
     <sheet name="Download" sheetId="5" r:id="rId3"/>
     <sheet name="Upload" sheetId="6" r:id="rId4"/>

--- a/Workbooks/EN/Packages.xlsx
+++ b/Workbooks/EN/Packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E44CC-FD6E-4628-AA0C-3052810CE00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C05E7C-A66C-4DF0-BA1F-CD57648EFC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -229,7 +229,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -248,15 +247,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -265,8 +294,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -279,12 +308,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -296,8 +319,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -308,8 +331,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -321,8 +342,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -335,12 +356,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -351,7 +366,80 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -364,9 +452,8 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -376,8 +463,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -390,83 +477,18 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -479,14 +501,7 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -564,12 +579,8 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -664,34 +675,6 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -715,13 +698,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Version" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Key" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Publish Date" totalsRowFunction="count" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Version" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Key" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Publish Date" totalsRowFunction="count" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -731,9 +714,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="Version" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="Key" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="Version" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="Key" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -745,21 +728,21 @@
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="Name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="Version" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="Download Folder Path" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="Downloaded Package File Path" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="Result" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="Version" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="Download Folder Path" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="Downloaded Package File Path" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="Result" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:B201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="Package File Path" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="Result" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="Package File Path" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="Result" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1036,10 +1019,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" style="24" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1057,1204 +1040,1204 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="14"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="14"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="14"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="14"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="14"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="14"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="14"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="14"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="14"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="14"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="14"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="14"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="14"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="14"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="14"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="14"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="14"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="14"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="14"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="14"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="14"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="14"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="3"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="14"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="14"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
+      <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="14"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
+      <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="14"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
+      <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="14"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="14"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
+      <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="14"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="14"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
+      <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="14"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="14"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="14"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="14"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
+      <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="14"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
+      <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="14"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
+      <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="14"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="14"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="14"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="14"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="3"/>
+      <c r="A92" s="4"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="14"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="3"/>
+      <c r="A93" s="4"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="14"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="3"/>
+      <c r="A94" s="4"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="14"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="3"/>
+      <c r="A95" s="4"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="14"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="3"/>
+      <c r="A96" s="4"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="14"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="3"/>
+      <c r="A97" s="4"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="14"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="3"/>
+      <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="14"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="3"/>
+      <c r="A99" s="4"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="14"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="3"/>
+      <c r="A100" s="4"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="14"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="14"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="3"/>
+      <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="13"/>
+      <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="3"/>
+      <c r="A103" s="4"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="13"/>
+      <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="3"/>
+      <c r="A104" s="4"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="13"/>
+      <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="3"/>
+      <c r="A105" s="4"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="13"/>
+      <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="3"/>
+      <c r="A106" s="4"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="13"/>
+      <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="3"/>
+      <c r="A107" s="4"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="12"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="3"/>
+      <c r="A108" s="4"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="13"/>
+      <c r="D108" s="12"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="3"/>
+      <c r="A109" s="4"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="13"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="3"/>
+      <c r="A110" s="4"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="13"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="3"/>
+      <c r="A111" s="4"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="13"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="3"/>
+      <c r="A112" s="4"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="13"/>
+      <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="3"/>
+      <c r="A113" s="4"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="13"/>
+      <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="3"/>
+      <c r="A114" s="4"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="13"/>
+      <c r="D114" s="12"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="3"/>
+      <c r="A115" s="4"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="13"/>
+      <c r="D115" s="12"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="3"/>
+      <c r="A116" s="4"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="13"/>
+      <c r="D116" s="12"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="3"/>
+      <c r="A117" s="4"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="13"/>
+      <c r="D117" s="12"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="3"/>
+      <c r="A118" s="4"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="13"/>
+      <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="3"/>
+      <c r="A119" s="4"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="13"/>
+      <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="3"/>
+      <c r="A120" s="4"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="13"/>
+      <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="3"/>
+      <c r="A121" s="4"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="13"/>
+      <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="3"/>
+      <c r="A122" s="4"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="13"/>
+      <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="3"/>
+      <c r="A123" s="4"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="13"/>
+      <c r="D123" s="12"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="3"/>
+      <c r="A124" s="4"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="13"/>
+      <c r="D124" s="12"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="3"/>
+      <c r="A125" s="4"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="13"/>
+      <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="3"/>
+      <c r="A126" s="4"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="13"/>
+      <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="3"/>
+      <c r="A127" s="4"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="13"/>
+      <c r="D127" s="12"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="3"/>
+      <c r="A128" s="4"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="13"/>
+      <c r="D128" s="12"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="3"/>
+      <c r="A129" s="4"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="13"/>
+      <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="3"/>
+      <c r="A130" s="4"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="13"/>
+      <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="3"/>
+      <c r="A131" s="4"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="13"/>
+      <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="3"/>
+      <c r="A132" s="4"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="13"/>
+      <c r="D132" s="12"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="3"/>
+      <c r="A133" s="4"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="13"/>
+      <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="3"/>
+      <c r="A134" s="4"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="13"/>
+      <c r="D134" s="12"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="3"/>
+      <c r="A135" s="4"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="13"/>
+      <c r="D135" s="12"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="3"/>
+      <c r="A136" s="4"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="13"/>
+      <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="3"/>
+      <c r="A137" s="4"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="13"/>
+      <c r="D137" s="12"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="3"/>
+      <c r="A138" s="4"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="13"/>
+      <c r="D138" s="12"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="3"/>
+      <c r="A139" s="4"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="13"/>
+      <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="3"/>
+      <c r="A140" s="4"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="13"/>
+      <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="3"/>
+      <c r="A141" s="4"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="13"/>
+      <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="3"/>
+      <c r="A142" s="4"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="13"/>
+      <c r="D142" s="12"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="3"/>
+      <c r="A143" s="4"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="13"/>
+      <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="3"/>
+      <c r="A144" s="4"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="13"/>
+      <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="3"/>
+      <c r="A145" s="4"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="13"/>
+      <c r="D145" s="12"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="3"/>
+      <c r="A146" s="4"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="13"/>
+      <c r="D146" s="12"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="3"/>
+      <c r="A147" s="4"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="13"/>
+      <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="3"/>
+      <c r="A148" s="4"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="13"/>
+      <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="3"/>
+      <c r="A149" s="4"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="13"/>
+      <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="3"/>
+      <c r="A150" s="4"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="13"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="3"/>
+      <c r="A151" s="4"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="13"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="3"/>
+      <c r="A152" s="4"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="13"/>
+      <c r="D152" s="12"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="3"/>
+      <c r="A153" s="4"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="13"/>
+      <c r="D153" s="12"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="3"/>
+      <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="13"/>
+      <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="3"/>
+      <c r="A155" s="4"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="13"/>
+      <c r="D155" s="12"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="3"/>
+      <c r="A156" s="4"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="13"/>
+      <c r="D156" s="12"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="3"/>
+      <c r="A157" s="4"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="13"/>
+      <c r="D157" s="12"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="3"/>
+      <c r="A158" s="4"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="13"/>
+      <c r="D158" s="12"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="3"/>
+      <c r="A159" s="4"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="13"/>
+      <c r="D159" s="12"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="3"/>
+      <c r="A160" s="4"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="13"/>
+      <c r="D160" s="12"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="3"/>
+      <c r="A161" s="4"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="13"/>
+      <c r="D161" s="12"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="3"/>
+      <c r="A162" s="4"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="13"/>
+      <c r="D162" s="12"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="3"/>
+      <c r="A163" s="4"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="13"/>
+      <c r="D163" s="12"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="3"/>
+      <c r="A164" s="4"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="13"/>
+      <c r="D164" s="12"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="3"/>
+      <c r="A165" s="4"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="13"/>
+      <c r="D165" s="12"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="3"/>
+      <c r="A166" s="4"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="13"/>
+      <c r="D166" s="12"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="3"/>
+      <c r="A167" s="4"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="13"/>
+      <c r="D167" s="12"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="3"/>
+      <c r="A168" s="4"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="13"/>
+      <c r="D168" s="12"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="3"/>
+      <c r="A169" s="4"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="13"/>
+      <c r="D169" s="12"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="3"/>
+      <c r="A170" s="4"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="13"/>
+      <c r="D170" s="12"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="3"/>
+      <c r="A171" s="4"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="13"/>
+      <c r="D171" s="12"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="3"/>
+      <c r="A172" s="4"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="13"/>
+      <c r="D172" s="12"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="3"/>
+      <c r="A173" s="4"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="13"/>
+      <c r="D173" s="12"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="3"/>
+      <c r="A174" s="4"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="13"/>
+      <c r="D174" s="12"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="3"/>
+      <c r="A175" s="4"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="13"/>
+      <c r="D175" s="12"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="3"/>
+      <c r="A176" s="4"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="13"/>
+      <c r="D176" s="12"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="3"/>
+      <c r="A177" s="4"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="13"/>
+      <c r="D177" s="12"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="3"/>
+      <c r="A178" s="4"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="13"/>
+      <c r="D178" s="12"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="3"/>
+      <c r="A179" s="4"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="13"/>
+      <c r="D179" s="12"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="3"/>
+      <c r="A180" s="4"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="13"/>
+      <c r="D180" s="12"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="3"/>
+      <c r="A181" s="4"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="13"/>
+      <c r="D181" s="12"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="3"/>
+      <c r="A182" s="4"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="13"/>
+      <c r="D182" s="12"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="3"/>
+      <c r="A183" s="4"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="13"/>
+      <c r="D183" s="12"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="3"/>
+      <c r="A184" s="4"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="13"/>
+      <c r="D184" s="12"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="3"/>
+      <c r="A185" s="4"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="13"/>
+      <c r="D185" s="12"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="3"/>
+      <c r="A186" s="4"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="13"/>
+      <c r="D186" s="12"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="3"/>
+      <c r="A187" s="4"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="13"/>
+      <c r="D187" s="12"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="3"/>
+      <c r="A188" s="4"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="13"/>
+      <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="3"/>
+      <c r="A189" s="4"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="13"/>
+      <c r="D189" s="12"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="3"/>
+      <c r="A190" s="4"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="13"/>
+      <c r="D190" s="12"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="3"/>
+      <c r="A191" s="4"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="D191" s="13"/>
+      <c r="D191" s="12"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="3"/>
+      <c r="A192" s="4"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="13"/>
+      <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="3"/>
+      <c r="A193" s="4"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="13"/>
+      <c r="D193" s="12"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="3"/>
+      <c r="A194" s="4"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="13"/>
+      <c r="D194" s="12"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="3"/>
+      <c r="A195" s="4"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="13"/>
+      <c r="D195" s="12"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="3"/>
+      <c r="A196" s="4"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="13"/>
+      <c r="D196" s="12"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="3"/>
+      <c r="A197" s="4"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="13"/>
+      <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="3"/>
+      <c r="A198" s="4"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="13"/>
+      <c r="D198" s="12"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="5"/>
+      <c r="A199" s="23"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="15"/>
+      <c r="D199" s="14"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="3"/>
+      <c r="A200" s="4"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="13"/>
+      <c r="D200" s="12"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="3"/>
+      <c r="A201" s="4"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
-      <c r="D201" s="13"/>
+      <c r="D201" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2278,9 +2261,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" style="24" customWidth="1"/>
     <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2299,1203 +2283,1203 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="6"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="6"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="6"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="6"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="6"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="6"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="6"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="6"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="6"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="6"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="6"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="6"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="3"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="6"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="6"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="6"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="6"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="6"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="6"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="6"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="6"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="3"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="6"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="6"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="6"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="6"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="6"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="6"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="3"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="6"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="6"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="6"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="6"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="6"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="6"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="3"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="6"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="6"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="3"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="6"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="6"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="6"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="6"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="6"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="3"/>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="6"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="3"/>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="6"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="3"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="6"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="6"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="6"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="6"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="6"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="6"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="3"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="6"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="6"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="6"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="6"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="3"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="6"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="6"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="3"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="6"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="6"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="3"/>
+      <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="6"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="6"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="4"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="6"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="3"/>
+      <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="6"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="3"/>
+      <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="6"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="3"/>
+      <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="6"/>
+      <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="6"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="3"/>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="6"/>
+      <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="3"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="6"/>
+      <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="3"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="6"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="3"/>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="6"/>
+      <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="6"/>
+      <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="3"/>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="6"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
-      <c r="D122" s="3"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="6"/>
+      <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="3"/>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="6"/>
+      <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="3"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="6"/>
+      <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="3"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="6"/>
+      <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="3"/>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="6"/>
+      <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="3"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="6"/>
+      <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="3"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="6"/>
+      <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="6"/>
+      <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="3"/>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="6"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
-      <c r="D131" s="3"/>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="6"/>
+      <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="3"/>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="6"/>
+      <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="3"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="6"/>
+      <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="3"/>
+      <c r="D134" s="4"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="6"/>
+      <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="3"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="6"/>
+      <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="3"/>
+      <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="6"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="6"/>
+      <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="3"/>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="6"/>
+      <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="3"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="6"/>
+      <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="3"/>
+      <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="6"/>
+      <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="3"/>
+      <c r="D141" s="4"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="6"/>
+      <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="6"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="6"/>
+      <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="6"/>
+      <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="6"/>
+      <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="3"/>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="6"/>
+      <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
-      <c r="D147" s="3"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="6"/>
+      <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="3"/>
+      <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="6"/>
+      <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="3"/>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="6"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
-      <c r="D150" s="3"/>
+      <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="6"/>
+      <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="3"/>
+      <c r="D151" s="4"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="6"/>
+      <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
-      <c r="D152" s="3"/>
+      <c r="D152" s="4"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="6"/>
+      <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
-      <c r="D153" s="3"/>
+      <c r="D153" s="4"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="6"/>
+      <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="3"/>
+      <c r="D154" s="4"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="6"/>
+      <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
-      <c r="D155" s="3"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="6"/>
+      <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
-      <c r="D156" s="3"/>
+      <c r="D156" s="4"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="6"/>
+      <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="3"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="6"/>
+      <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="3"/>
+      <c r="D158" s="4"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="6"/>
+      <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
-      <c r="D159" s="3"/>
+      <c r="D159" s="4"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="6"/>
+      <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="3"/>
+      <c r="D160" s="4"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="6"/>
+      <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="3"/>
+      <c r="D161" s="4"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="6"/>
+      <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="3"/>
+      <c r="D162" s="4"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="6"/>
+      <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="3"/>
+      <c r="D163" s="4"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="6"/>
+      <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="3"/>
+      <c r="D164" s="4"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="6"/>
+      <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="3"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="6"/>
+      <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="3"/>
+      <c r="D166" s="4"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="6"/>
+      <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="3"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="6"/>
+      <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="3"/>
+      <c r="D168" s="4"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="6"/>
+      <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="3"/>
+      <c r="D169" s="4"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="6"/>
+      <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
-      <c r="D170" s="3"/>
+      <c r="D170" s="4"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="6"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="3"/>
+      <c r="D171" s="4"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="6"/>
+      <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="3"/>
+      <c r="D172" s="4"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="6"/>
+      <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="3"/>
+      <c r="D173" s="4"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="6"/>
+      <c r="A174" s="7"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="3"/>
+      <c r="D174" s="4"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="6"/>
+      <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="3"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="6"/>
+      <c r="A176" s="7"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="3"/>
+      <c r="D176" s="4"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="6"/>
+      <c r="A177" s="7"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="3"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="6"/>
+      <c r="A178" s="7"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="3"/>
+      <c r="D178" s="4"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="6"/>
+      <c r="A179" s="7"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
-      <c r="D179" s="3"/>
+      <c r="D179" s="4"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="6"/>
+      <c r="A180" s="7"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="3"/>
+      <c r="D180" s="4"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="6"/>
+      <c r="A181" s="7"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
-      <c r="D181" s="3"/>
+      <c r="D181" s="4"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="6"/>
+      <c r="A182" s="7"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
-      <c r="D182" s="3"/>
+      <c r="D182" s="4"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="6"/>
+      <c r="A183" s="7"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="3"/>
+      <c r="D183" s="4"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="6"/>
+      <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="3"/>
+      <c r="D184" s="4"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="6"/>
+      <c r="A185" s="7"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
-      <c r="D185" s="3"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="6"/>
+      <c r="A186" s="7"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
-      <c r="D186" s="3"/>
+      <c r="D186" s="4"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="6"/>
+      <c r="A187" s="7"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
-      <c r="D187" s="3"/>
+      <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="6"/>
+      <c r="A188" s="7"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="3"/>
+      <c r="D188" s="4"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="6"/>
+      <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
-      <c r="D189" s="3"/>
+      <c r="D189" s="4"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="6"/>
+      <c r="A190" s="7"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="3"/>
+      <c r="D190" s="4"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="6"/>
+      <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
-      <c r="D191" s="3"/>
+      <c r="D191" s="4"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="6"/>
+      <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="3"/>
+      <c r="D192" s="4"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="6"/>
+      <c r="A193" s="7"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
-      <c r="D193" s="3"/>
+      <c r="D193" s="4"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="6"/>
+      <c r="A194" s="7"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
-      <c r="D194" s="3"/>
+      <c r="D194" s="4"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="6"/>
+      <c r="A195" s="7"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
-      <c r="D195" s="3"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="6"/>
+      <c r="A196" s="7"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="3"/>
+      <c r="D196" s="4"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="6"/>
+      <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
-      <c r="D197" s="3"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="6"/>
+      <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
-      <c r="D198" s="3"/>
+      <c r="D198" s="4"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="6"/>
+      <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
-      <c r="D199" s="3"/>
+      <c r="D199" s="4"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="6"/>
+      <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="3"/>
+      <c r="D200" s="4"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="10"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="3"/>
+      <c r="A201" s="25"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3519,1429 +3503,1429 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" style="26" customWidth="1"/>
     <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="39.453125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="37" style="26" customWidth="1"/>
+    <col min="5" max="5" width="37.6328125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="18"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="18"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="18"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="18"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
+      <c r="A165" s="28"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="23"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="18"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="23"/>
-      <c r="E167" s="23"/>
+      <c r="A167" s="28"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="18"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
+      <c r="A168" s="28"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="18"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="23"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="18"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
+      <c r="A173" s="28"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="18"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
+      <c r="A174" s="28"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="18"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
+      <c r="A175" s="28"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="23"/>
+      <c r="A176" s="28"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
+      <c r="A177" s="28"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
+      <c r="A180" s="28"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="23"/>
+      <c r="A181" s="28"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="18"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23"/>
+      <c r="A182" s="28"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="18"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="23"/>
-      <c r="E183" s="23"/>
+      <c r="A183" s="28"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="18"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="23"/>
-      <c r="E184" s="23"/>
+      <c r="A184" s="28"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="18"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="23"/>
-      <c r="E185" s="23"/>
+      <c r="A185" s="28"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="23"/>
-      <c r="E186" s="23"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" s="18"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="23"/>
-      <c r="E187" s="23"/>
+      <c r="A187" s="28"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A188" s="18"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="23"/>
-      <c r="E188" s="23"/>
+      <c r="A188" s="28"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A189" s="18"/>
-      <c r="B189" s="18"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="23"/>
-      <c r="E189" s="23"/>
+      <c r="A189" s="28"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A190" s="18"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="23"/>
+      <c r="A190" s="28"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="23"/>
-      <c r="E191" s="23"/>
+      <c r="A191" s="28"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A192" s="18"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="23"/>
-      <c r="E192" s="23"/>
+      <c r="A192" s="28"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" s="18"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="23"/>
-      <c r="E193" s="23"/>
+      <c r="A193" s="28"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="31"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="18"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="23"/>
-      <c r="E194" s="23"/>
+      <c r="A194" s="28"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="31"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="23"/>
+      <c r="A195" s="28"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="31"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A196" s="18"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="23"/>
-      <c r="E196" s="23"/>
+      <c r="A196" s="28"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="31"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A197" s="18"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="23"/>
-      <c r="E197" s="23"/>
+      <c r="A197" s="28"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="31"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A198" s="18"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="23"/>
-      <c r="E198" s="23"/>
+      <c r="A198" s="28"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A199" s="18"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="23"/>
+      <c r="A199" s="28"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="31"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" s="18"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
+      <c r="A200" s="28"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="31"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="24"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
+      <c r="A201" s="29"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4962,817 +4946,816 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="1" max="2" width="46.26953125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="31"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="31"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="31"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="31"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="31"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="31"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="31"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="31"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="31"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="31"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="31"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="31"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="31"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="19"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="19"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="31"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="31"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="19"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="31"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="19"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="19"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="19"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="31"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="19"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="31"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="19"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="31"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="31"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="19"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="31"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="31"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="31"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="31"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="31"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="31"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="31"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="31"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="31"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="31"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="31"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="31"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="31"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="31"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="31"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="31"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="19"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="31"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="19"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="31"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="31"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="31"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="19"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="31"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="19"/>
-      <c r="B71" s="23"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="31"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="31"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="31"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="31"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="19"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="31"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="19"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="31"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="31"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="19"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="31"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="19"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="31"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="19"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="31"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="19"/>
-      <c r="B81" s="23"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="31"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="19"/>
-      <c r="B82" s="23"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="31"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="31"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="31"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="19"/>
-      <c r="B85" s="23"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="31"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="19"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="31"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="19"/>
-      <c r="B87" s="23"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="31"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="19"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="31"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="19"/>
-      <c r="B89" s="23"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="31"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="19"/>
-      <c r="B90" s="23"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="31"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="19"/>
-      <c r="B91" s="23"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="31"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="19"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="31"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="19"/>
-      <c r="B93" s="23"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="31"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="19"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="31"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="19"/>
-      <c r="B95" s="23"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="31"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="19"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="31"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="19"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="31"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="19"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="31"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="19"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="31"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="19"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="31"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="31"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="19"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="31"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="31"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="31"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="19"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="31"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="19"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="31"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="19"/>
-      <c r="B107" s="23"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="31"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="19"/>
-      <c r="B108" s="23"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="31"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="19"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="31"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="19"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="31"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="19"/>
-      <c r="B111" s="23"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="31"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="19"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="31"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="19"/>
-      <c r="B113" s="23"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="31"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="19"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="31"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="19"/>
-      <c r="B115" s="23"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="31"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="19"/>
-      <c r="B116" s="23"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="31"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="19"/>
-      <c r="B117" s="23"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="31"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="19"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="31"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="19"/>
-      <c r="B119" s="23"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="31"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="19"/>
-      <c r="B120" s="23"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="31"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="19"/>
-      <c r="B121" s="23"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="31"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="19"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="31"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="19"/>
-      <c r="B123" s="23"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="31"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="19"/>
-      <c r="B124" s="23"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="31"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="19"/>
-      <c r="B125" s="23"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="31"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="19"/>
-      <c r="B126" s="23"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="31"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="19"/>
-      <c r="B127" s="23"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="31"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="19"/>
-      <c r="B128" s="23"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="31"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="19"/>
-      <c r="B129" s="23"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="31"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="19"/>
-      <c r="B130" s="23"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="19"/>
-      <c r="B131" s="23"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="31"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="19"/>
-      <c r="B132" s="23"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="31"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="19"/>
-      <c r="B133" s="23"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="31"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="19"/>
-      <c r="B134" s="23"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="31"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="19"/>
-      <c r="B135" s="23"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="31"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="19"/>
-      <c r="B136" s="23"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="31"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="19"/>
-      <c r="B137" s="23"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="31"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="19"/>
-      <c r="B138" s="23"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="31"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="19"/>
-      <c r="B139" s="23"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="31"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="19"/>
-      <c r="B140" s="23"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="31"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="19"/>
-      <c r="B141" s="23"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="31"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="19"/>
-      <c r="B142" s="23"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="31"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="19"/>
-      <c r="B143" s="23"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="31"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="19"/>
-      <c r="B144" s="23"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="31"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="19"/>
-      <c r="B145" s="23"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="31"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="19"/>
-      <c r="B146" s="23"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="31"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="19"/>
-      <c r="B147" s="23"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="31"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="19"/>
-      <c r="B148" s="23"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="31"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="19"/>
-      <c r="B149" s="23"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="31"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="19"/>
-      <c r="B150" s="23"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="31"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="19"/>
-      <c r="B151" s="23"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="31"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="19"/>
-      <c r="B152" s="23"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="31"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="19"/>
-      <c r="B153" s="23"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="31"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="19"/>
-      <c r="B154" s="23"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="31"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="19"/>
-      <c r="B155" s="23"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="31"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="19"/>
-      <c r="B156" s="23"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="31"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="19"/>
-      <c r="B157" s="23"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="31"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="19"/>
-      <c r="B158" s="23"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="31"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="19"/>
-      <c r="B159" s="23"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="31"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="19"/>
-      <c r="B160" s="23"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="31"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="19"/>
-      <c r="B161" s="23"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="31"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="19"/>
-      <c r="B162" s="23"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="31"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="19"/>
-      <c r="B163" s="23"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="31"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="19"/>
-      <c r="B164" s="23"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="31"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="19"/>
-      <c r="B165" s="23"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="31"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="19"/>
-      <c r="B166" s="23"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="31"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="19"/>
-      <c r="B167" s="23"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="31"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="19"/>
-      <c r="B168" s="23"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="31"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="19"/>
-      <c r="B169" s="23"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="31"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="19"/>
-      <c r="B170" s="23"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="31"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="19"/>
-      <c r="B171" s="23"/>
+      <c r="A171" s="21"/>
+      <c r="B171" s="31"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="19"/>
-      <c r="B172" s="23"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="31"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="19"/>
-      <c r="B173" s="23"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="31"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="19"/>
-      <c r="B174" s="23"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="31"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="19"/>
-      <c r="B175" s="23"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="31"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="19"/>
-      <c r="B176" s="23"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="31"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="19"/>
-      <c r="B177" s="23"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="31"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="19"/>
-      <c r="B178" s="23"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="31"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="19"/>
-      <c r="B179" s="23"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="31"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="19"/>
-      <c r="B180" s="23"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="31"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="19"/>
-      <c r="B181" s="23"/>
+      <c r="A181" s="21"/>
+      <c r="B181" s="31"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="19"/>
-      <c r="B182" s="23"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="31"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="19"/>
-      <c r="B183" s="23"/>
+      <c r="A183" s="21"/>
+      <c r="B183" s="31"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="19"/>
-      <c r="B184" s="23"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="31"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="19"/>
-      <c r="B185" s="23"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="31"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="19"/>
-      <c r="B186" s="23"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="31"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="19"/>
-      <c r="B187" s="23"/>
+      <c r="A187" s="21"/>
+      <c r="B187" s="31"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="19"/>
-      <c r="B188" s="23"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="31"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="19"/>
-      <c r="B189" s="23"/>
+      <c r="A189" s="21"/>
+      <c r="B189" s="31"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="19"/>
-      <c r="B190" s="23"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="31"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="19"/>
-      <c r="B191" s="23"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="31"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="19"/>
-      <c r="B192" s="23"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="31"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="19"/>
-      <c r="B193" s="23"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="31"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="19"/>
-      <c r="B194" s="23"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="31"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="19"/>
-      <c r="B195" s="23"/>
+      <c r="A195" s="21"/>
+      <c r="B195" s="31"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="19"/>
-      <c r="B196" s="23"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="31"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="19"/>
-      <c r="B197" s="23"/>
+      <c r="A197" s="21"/>
+      <c r="B197" s="31"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="19"/>
-      <c r="B198" s="23"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="31"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="19"/>
-      <c r="B199" s="23"/>
+      <c r="A199" s="21"/>
+      <c r="B199" s="31"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="19"/>
-      <c r="B200" s="23"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="31"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="25"/>
-      <c r="B201" s="23"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/EN/Packages.xlsx
+++ b/Workbooks/EN/Packages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C05E7C-A66C-4DF0-BA1F-CD57648EFC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5BEFA2-B33A-47D3-86BF-6463BAF36F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,9 +284,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -333,6 +330,9 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -413,6 +413,33 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -454,54 +481,6 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -565,8 +544,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -579,8 +558,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -675,6 +652,29 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -701,10 +701,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Version" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Key" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Publish Date" totalsRowFunction="count" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Version" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Key" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Publish Date" totalsRowFunction="count" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,10 +714,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="Version" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="Key" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="Version" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="Key" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -727,8 +727,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35F05428-B613-4CF1-B38D-E6E1EAB2CF39}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="Name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="Version" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="Name" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="Version" dataDxfId="6"/>
     <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="Download Folder Path" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="Downloaded Package File Path" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="Result" dataDxfId="3"/>
@@ -738,11 +738,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A1:B201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="Package File Path" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="Result" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="Package File Path" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,10 +1019,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2261,10 +2261,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -3503,11 +3503,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="39.453125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="37" style="26" customWidth="1"/>
-    <col min="5" max="5" width="37.6328125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="5" width="45.7265625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -4946,7 +4944,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="46.26953125" style="26" customWidth="1"/>
+    <col min="1" max="2" width="45.7265625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">

--- a/Workbooks/EN/Packages.xlsx
+++ b/Workbooks/EN/Packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5BEFA2-B33A-47D3-86BF-6463BAF36F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D8D7E-7355-4C36-B484-1796968D6B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Delete" sheetId="2" r:id="rId2"/>
     <sheet name="Download" sheetId="5" r:id="rId3"/>
     <sheet name="Upload" sheetId="6" r:id="rId4"/>
+    <sheet name="Get Referenced Entities" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>Package File Path</t>
+  </si>
+  <si>
+    <t>Package Referenced Entities File Path</t>
   </si>
 </sst>
 </file>
@@ -282,7 +286,105 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -698,13 +800,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D201" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Version" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Key" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Publish Date" totalsRowFunction="count" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Version" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Key" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Publish Date" totalsRowFunction="count" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,10 +816,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="Version" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="Key" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C72BAAEA-8623-451D-A772-6AFC42D53847}" name="Version" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{0D1E0CB8-326D-43DF-BDB6-14BA3A591594}" name="Key" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -727,22 +829,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35F05428-B613-4CF1-B38D-E6E1EAB2CF39}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="Name" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="Version" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="Download Folder Path" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="Downloaded Package File Path" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="Result" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{13BBD164-15A6-47AD-8E04-1E31DC7C9EB7}" name="Name" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FF0192F4-4234-42F4-9AB7-F74D574D8B6B}" name="Version" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{89508E71-67D2-4C37-9DC7-DFBFB3432264}" name="Download Folder Path" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{ACFC5A5B-B862-48D7-8F4D-630A2565FB6A}" name="Downloaded Package File Path" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{AAB78222-B4DB-4E1D-9641-F2E1D21177A9}" name="Result" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{370CCCB1-06EA-4D40-AC83-30361B678D7D}" name="Table1356" displayName="Table1356" ref="A1:B201" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:B201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="Package File Path" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="Result" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{5E227A8C-D90A-48D1-B45C-9455E18EAD62}" name="Package File Path" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B9E4F440-541B-4112-8AEF-18C25018EA9C}" name="Result" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85481D08-3072-450F-8126-7D4266CE958B}" name="Table1357" displayName="Table1357" ref="A1:D201" totalsRowShown="0">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{C03F1D19-CF40-47F1-B92F-1DCEFBCBE762}" name="Name" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{CF26CA12-5A1D-4630-AC54-66F03FC8E3D6}" name="Version" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EF28F590-00D0-44A2-8174-0A0F2B32A08A}" name="Package Referenced Entities File Path" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A4F19390-D0D4-4B9B-BD64-589FD5E41D8E}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5762,4 +5877,1242 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F75DB2-D887-4D1E-A46B-217AC1A634EB}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="4" width="45.7265625" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="28"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="28"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="28"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="28"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="28"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="28"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="28"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="28"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="28"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="28"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="28"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="28"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="28"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="28"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="28"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="28"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="28"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="28"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="28"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="28"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="28"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="28"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="28"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="28"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="28"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="28"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="28"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="28"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="28"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="28"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="28"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="28"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="28"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="28"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="28"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="28"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="28"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="28"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="28"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="28"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="28"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="28"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="28"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="28"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="28"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="28"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="28"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="28"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="28"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="28"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="28"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="28"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="28"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="28"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="28"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="28"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="28"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="28"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="28"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="28"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="28"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="28"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="28"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="28"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="28"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="28"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="28"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="28"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="28"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="28"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="28"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="28"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="28"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="28"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="28"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="28"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="28"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="28"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="28"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="28"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="28"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="28"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="28"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="28"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="28"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="28"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="28"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="28"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="28"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="28"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="28"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="28"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="28"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="28"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="28"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="28"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="28"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="28"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="28"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="28"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="28"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="28"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="28"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="28"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="28"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="28"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="28"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="28"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="28"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="28"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="28"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="28"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="28"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="28"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="28"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="28"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="28"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="28"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="28"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="28"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="28"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="28"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="28"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="28"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="28"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="28"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="28"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="28"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="28"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="28"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="28"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="28"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="28"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="28"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="28"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="28"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="28"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="28"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="28"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="28"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="28"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="28"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="28"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="28"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="28"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="28"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="28"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="28"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="28"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="28"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="28"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="28"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="28"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="28"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="28"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="28"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="28"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="28"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="28"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="28"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="28"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="28"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="28"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="28"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="28"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="28"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="28"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="28"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="28"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="28"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="28"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="28"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="28"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="28"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="28"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="28"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="28"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="31"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="29"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/EN/Packages.xlsx
+++ b/Workbooks/EN/Packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D8D7E-7355-4C36-B484-1796968D6B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87447B66-44EC-489F-9C75-4EA65DE7BDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -1132,15 +1132,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1154,1201 +1154,1201 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="13"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="13"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="13"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="13"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="13"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="13"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="13"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="13"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="13"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="13"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="13"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="13"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="13"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="13"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="13"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="13"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="13"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="13"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="13"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="13"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="13"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="13"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="13"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="13"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="13"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="13"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="13"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="13"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="13"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="13"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="13"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="13"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="13"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="13"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="13"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="13"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="13"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="13"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="13"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="13"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="13"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="13"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="13"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="13"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="12"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="12"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="12"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="12"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="12"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="12"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="12"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="12"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="12"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="12"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="12"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="12"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="12"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="12"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="12"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="12"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="12"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="12"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="12"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="12"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="12"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="12"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="12"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="12"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="12"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="12"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="12"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="12"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="12"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="12"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="12"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="12"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="12"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="12"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="12"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="12"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="12"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="12"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="12"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="12"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="12"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="12"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="12"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="12"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="12"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="12"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="12"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="12"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="12"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="12"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="12"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="12"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="12"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="12"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="12"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="12"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="12"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="12"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="12"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="12"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="12"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="12"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="12"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="12"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="12"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="12"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="12"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="12"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="12"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="12"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="12"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="12"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="12"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="12"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="12"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="12"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="12"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="12"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="12"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="12"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="12"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="12"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="12"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="12"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="12"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="12"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="12"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="12"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="12"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="12"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="12"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="14"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="12"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -2374,15 +2374,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" customWidth="1"/>
-    <col min="4" max="4" width="45.7265625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2396,1201 +2396,1201 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -3616,14 +3616,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="5" width="45.7265625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="45.7109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3640,1400 +3640,1400 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="17"/>
       <c r="C3" s="21"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="17"/>
       <c r="C4" s="21"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="17"/>
       <c r="C5" s="21"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="17"/>
       <c r="C6" s="21"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="17"/>
       <c r="C7" s="21"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="17"/>
       <c r="C8" s="21"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="17"/>
       <c r="C9" s="21"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="17"/>
       <c r="C10" s="21"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="17"/>
       <c r="C11" s="21"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="17"/>
       <c r="C12" s="21"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="17"/>
       <c r="C13" s="21"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="17"/>
       <c r="C14" s="21"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="17"/>
       <c r="C15" s="21"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="17"/>
       <c r="C16" s="21"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="17"/>
       <c r="C17" s="21"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="17"/>
       <c r="C18" s="21"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="17"/>
       <c r="C30" s="21"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="17"/>
       <c r="C31" s="21"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="17"/>
       <c r="C32" s="21"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="17"/>
       <c r="C33" s="21"/>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="17"/>
       <c r="C34" s="21"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="17"/>
       <c r="C35" s="21"/>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="17"/>
       <c r="C36" s="21"/>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="17"/>
       <c r="C37" s="21"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="17"/>
       <c r="C38" s="21"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="17"/>
       <c r="C39" s="21"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="17"/>
       <c r="C40" s="21"/>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="17"/>
       <c r="C41" s="21"/>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="17"/>
       <c r="C42" s="21"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="17"/>
       <c r="C43" s="21"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="17"/>
       <c r="C44" s="21"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="17"/>
       <c r="C45" s="21"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="17"/>
       <c r="C46" s="21"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="17"/>
       <c r="C47" s="21"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="17"/>
       <c r="C48" s="21"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="17"/>
       <c r="C49" s="21"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="17"/>
       <c r="C50" s="21"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="17"/>
       <c r="C51" s="21"/>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="17"/>
       <c r="C52" s="21"/>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="17"/>
       <c r="C53" s="21"/>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="17"/>
       <c r="C54" s="21"/>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="17"/>
       <c r="C55" s="21"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="28"/>
       <c r="B56" s="17"/>
       <c r="C56" s="21"/>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="17"/>
       <c r="C57" s="21"/>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="17"/>
       <c r="C58" s="21"/>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="17"/>
       <c r="C59" s="21"/>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="17"/>
       <c r="C60" s="21"/>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
       <c r="B61" s="17"/>
       <c r="C61" s="21"/>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="17"/>
       <c r="C62" s="21"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="17"/>
       <c r="C63" s="21"/>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="17"/>
       <c r="C64" s="21"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="17"/>
       <c r="C65" s="21"/>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="17"/>
       <c r="C66" s="21"/>
       <c r="D66" s="31"/>
       <c r="E66" s="31"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="17"/>
       <c r="C67" s="21"/>
       <c r="D67" s="31"/>
       <c r="E67" s="31"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="17"/>
       <c r="C68" s="21"/>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="17"/>
       <c r="C69" s="21"/>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="17"/>
       <c r="C70" s="21"/>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
       <c r="B71" s="17"/>
       <c r="C71" s="21"/>
       <c r="D71" s="31"/>
       <c r="E71" s="31"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="17"/>
       <c r="C72" s="21"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="17"/>
       <c r="C73" s="21"/>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="17"/>
       <c r="C74" s="21"/>
       <c r="D74" s="31"/>
       <c r="E74" s="31"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="17"/>
       <c r="C75" s="21"/>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="17"/>
       <c r="C76" s="21"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="17"/>
       <c r="C77" s="21"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="17"/>
       <c r="C78" s="21"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="17"/>
       <c r="C79" s="21"/>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="17"/>
       <c r="C80" s="21"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="17"/>
       <c r="C81" s="21"/>
       <c r="D81" s="31"/>
       <c r="E81" s="31"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="17"/>
       <c r="C82" s="21"/>
       <c r="D82" s="31"/>
       <c r="E82" s="31"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
       <c r="B83" s="17"/>
       <c r="C83" s="21"/>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
       <c r="B84" s="17"/>
       <c r="C84" s="21"/>
       <c r="D84" s="31"/>
       <c r="E84" s="31"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
       <c r="B85" s="17"/>
       <c r="C85" s="21"/>
       <c r="D85" s="31"/>
       <c r="E85" s="31"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="28"/>
       <c r="B86" s="17"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="31"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="17"/>
       <c r="C87" s="21"/>
       <c r="D87" s="31"/>
       <c r="E87" s="31"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="28"/>
       <c r="B88" s="17"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="31"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="28"/>
       <c r="B89" s="17"/>
       <c r="C89" s="21"/>
       <c r="D89" s="31"/>
       <c r="E89" s="31"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="28"/>
       <c r="B90" s="17"/>
       <c r="C90" s="21"/>
       <c r="D90" s="31"/>
       <c r="E90" s="31"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="28"/>
       <c r="B91" s="17"/>
       <c r="C91" s="21"/>
       <c r="D91" s="31"/>
       <c r="E91" s="31"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="28"/>
       <c r="B92" s="17"/>
       <c r="C92" s="21"/>
       <c r="D92" s="31"/>
       <c r="E92" s="31"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="28"/>
       <c r="B93" s="17"/>
       <c r="C93" s="21"/>
       <c r="D93" s="31"/>
       <c r="E93" s="31"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="28"/>
       <c r="B94" s="17"/>
       <c r="C94" s="21"/>
       <c r="D94" s="31"/>
       <c r="E94" s="31"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="28"/>
       <c r="B95" s="17"/>
       <c r="C95" s="21"/>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="28"/>
       <c r="B96" s="17"/>
       <c r="C96" s="21"/>
       <c r="D96" s="31"/>
       <c r="E96" s="31"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="28"/>
       <c r="B97" s="17"/>
       <c r="C97" s="21"/>
       <c r="D97" s="31"/>
       <c r="E97" s="31"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="28"/>
       <c r="B98" s="17"/>
       <c r="C98" s="21"/>
       <c r="D98" s="31"/>
       <c r="E98" s="31"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="28"/>
       <c r="B99" s="17"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="31"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
       <c r="B100" s="17"/>
       <c r="C100" s="21"/>
       <c r="D100" s="31"/>
       <c r="E100" s="31"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="17"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="31"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
       <c r="B102" s="17"/>
       <c r="C102" s="21"/>
       <c r="D102" s="31"/>
       <c r="E102" s="31"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="28"/>
       <c r="B103" s="17"/>
       <c r="C103" s="21"/>
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="28"/>
       <c r="B104" s="17"/>
       <c r="C104" s="21"/>
       <c r="D104" s="31"/>
       <c r="E104" s="31"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="28"/>
       <c r="B105" s="17"/>
       <c r="C105" s="21"/>
       <c r="D105" s="31"/>
       <c r="E105" s="31"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
       <c r="B106" s="17"/>
       <c r="C106" s="21"/>
       <c r="D106" s="31"/>
       <c r="E106" s="31"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
       <c r="B107" s="17"/>
       <c r="C107" s="21"/>
       <c r="D107" s="31"/>
       <c r="E107" s="31"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="28"/>
       <c r="B108" s="17"/>
       <c r="C108" s="21"/>
       <c r="D108" s="31"/>
       <c r="E108" s="31"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="17"/>
       <c r="C109" s="21"/>
       <c r="D109" s="31"/>
       <c r="E109" s="31"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
       <c r="B110" s="17"/>
       <c r="C110" s="21"/>
       <c r="D110" s="31"/>
       <c r="E110" s="31"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="28"/>
       <c r="B111" s="17"/>
       <c r="C111" s="21"/>
       <c r="D111" s="31"/>
       <c r="E111" s="31"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="28"/>
       <c r="B112" s="17"/>
       <c r="C112" s="21"/>
       <c r="D112" s="31"/>
       <c r="E112" s="31"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="28"/>
       <c r="B113" s="17"/>
       <c r="C113" s="21"/>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="28"/>
       <c r="B114" s="17"/>
       <c r="C114" s="21"/>
       <c r="D114" s="31"/>
       <c r="E114" s="31"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="28"/>
       <c r="B115" s="17"/>
       <c r="C115" s="21"/>
       <c r="D115" s="31"/>
       <c r="E115" s="31"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="28"/>
       <c r="B116" s="17"/>
       <c r="C116" s="21"/>
       <c r="D116" s="31"/>
       <c r="E116" s="31"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="28"/>
       <c r="B117" s="17"/>
       <c r="C117" s="21"/>
       <c r="D117" s="31"/>
       <c r="E117" s="31"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="28"/>
       <c r="B118" s="17"/>
       <c r="C118" s="21"/>
       <c r="D118" s="31"/>
       <c r="E118" s="31"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="28"/>
       <c r="B119" s="17"/>
       <c r="C119" s="21"/>
       <c r="D119" s="31"/>
       <c r="E119" s="31"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="28"/>
       <c r="B120" s="17"/>
       <c r="C120" s="21"/>
       <c r="D120" s="31"/>
       <c r="E120" s="31"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="28"/>
       <c r="B121" s="17"/>
       <c r="C121" s="21"/>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="28"/>
       <c r="B122" s="17"/>
       <c r="C122" s="21"/>
       <c r="D122" s="31"/>
       <c r="E122" s="31"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="28"/>
       <c r="B123" s="17"/>
       <c r="C123" s="21"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="28"/>
       <c r="B124" s="17"/>
       <c r="C124" s="21"/>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="28"/>
       <c r="B125" s="17"/>
       <c r="C125" s="21"/>
       <c r="D125" s="31"/>
       <c r="E125" s="31"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="28"/>
       <c r="B126" s="17"/>
       <c r="C126" s="21"/>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="28"/>
       <c r="B127" s="17"/>
       <c r="C127" s="21"/>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="28"/>
       <c r="B128" s="17"/>
       <c r="C128" s="21"/>
       <c r="D128" s="31"/>
       <c r="E128" s="31"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="28"/>
       <c r="B129" s="17"/>
       <c r="C129" s="21"/>
       <c r="D129" s="31"/>
       <c r="E129" s="31"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="28"/>
       <c r="B130" s="17"/>
       <c r="C130" s="21"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="28"/>
       <c r="B131" s="17"/>
       <c r="C131" s="21"/>
       <c r="D131" s="31"/>
       <c r="E131" s="31"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="28"/>
       <c r="B132" s="17"/>
       <c r="C132" s="21"/>
       <c r="D132" s="31"/>
       <c r="E132" s="31"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="28"/>
       <c r="B133" s="17"/>
       <c r="C133" s="21"/>
       <c r="D133" s="31"/>
       <c r="E133" s="31"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="28"/>
       <c r="B134" s="17"/>
       <c r="C134" s="21"/>
       <c r="D134" s="31"/>
       <c r="E134" s="31"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="28"/>
       <c r="B135" s="17"/>
       <c r="C135" s="21"/>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="28"/>
       <c r="B136" s="17"/>
       <c r="C136" s="21"/>
       <c r="D136" s="31"/>
       <c r="E136" s="31"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
       <c r="B137" s="17"/>
       <c r="C137" s="21"/>
       <c r="D137" s="31"/>
       <c r="E137" s="31"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="28"/>
       <c r="B138" s="17"/>
       <c r="C138" s="21"/>
       <c r="D138" s="31"/>
       <c r="E138" s="31"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
       <c r="B139" s="17"/>
       <c r="C139" s="21"/>
       <c r="D139" s="31"/>
       <c r="E139" s="31"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="28"/>
       <c r="B140" s="17"/>
       <c r="C140" s="21"/>
       <c r="D140" s="31"/>
       <c r="E140" s="31"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="28"/>
       <c r="B141" s="17"/>
       <c r="C141" s="21"/>
       <c r="D141" s="31"/>
       <c r="E141" s="31"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="28"/>
       <c r="B142" s="17"/>
       <c r="C142" s="21"/>
       <c r="D142" s="31"/>
       <c r="E142" s="31"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="28"/>
       <c r="B143" s="17"/>
       <c r="C143" s="21"/>
       <c r="D143" s="31"/>
       <c r="E143" s="31"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="28"/>
       <c r="B144" s="17"/>
       <c r="C144" s="21"/>
       <c r="D144" s="31"/>
       <c r="E144" s="31"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="28"/>
       <c r="B145" s="17"/>
       <c r="C145" s="21"/>
       <c r="D145" s="31"/>
       <c r="E145" s="31"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="28"/>
       <c r="B146" s="17"/>
       <c r="C146" s="21"/>
       <c r="D146" s="31"/>
       <c r="E146" s="31"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="28"/>
       <c r="B147" s="17"/>
       <c r="C147" s="21"/>
       <c r="D147" s="31"/>
       <c r="E147" s="31"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="28"/>
       <c r="B148" s="17"/>
       <c r="C148" s="21"/>
       <c r="D148" s="31"/>
       <c r="E148" s="31"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="28"/>
       <c r="B149" s="17"/>
       <c r="C149" s="21"/>
       <c r="D149" s="31"/>
       <c r="E149" s="31"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="28"/>
       <c r="B150" s="17"/>
       <c r="C150" s="21"/>
       <c r="D150" s="31"/>
       <c r="E150" s="31"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="28"/>
       <c r="B151" s="17"/>
       <c r="C151" s="21"/>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="28"/>
       <c r="B152" s="17"/>
       <c r="C152" s="21"/>
       <c r="D152" s="31"/>
       <c r="E152" s="31"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="28"/>
       <c r="B153" s="17"/>
       <c r="C153" s="21"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="28"/>
       <c r="B154" s="17"/>
       <c r="C154" s="21"/>
       <c r="D154" s="31"/>
       <c r="E154" s="31"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="28"/>
       <c r="B155" s="17"/>
       <c r="C155" s="21"/>
       <c r="D155" s="31"/>
       <c r="E155" s="31"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="28"/>
       <c r="B156" s="17"/>
       <c r="C156" s="21"/>
       <c r="D156" s="31"/>
       <c r="E156" s="31"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="28"/>
       <c r="B157" s="17"/>
       <c r="C157" s="21"/>
       <c r="D157" s="31"/>
       <c r="E157" s="31"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="28"/>
       <c r="B158" s="17"/>
       <c r="C158" s="21"/>
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="28"/>
       <c r="B159" s="17"/>
       <c r="C159" s="21"/>
       <c r="D159" s="31"/>
       <c r="E159" s="31"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="28"/>
       <c r="B160" s="17"/>
       <c r="C160" s="21"/>
       <c r="D160" s="31"/>
       <c r="E160" s="31"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="28"/>
       <c r="B161" s="17"/>
       <c r="C161" s="21"/>
       <c r="D161" s="31"/>
       <c r="E161" s="31"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="28"/>
       <c r="B162" s="17"/>
       <c r="C162" s="21"/>
       <c r="D162" s="31"/>
       <c r="E162" s="31"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="28"/>
       <c r="B163" s="17"/>
       <c r="C163" s="21"/>
       <c r="D163" s="31"/>
       <c r="E163" s="31"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="28"/>
       <c r="B164" s="17"/>
       <c r="C164" s="21"/>
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="28"/>
       <c r="B165" s="17"/>
       <c r="C165" s="21"/>
       <c r="D165" s="31"/>
       <c r="E165" s="31"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="28"/>
       <c r="B166" s="17"/>
       <c r="C166" s="21"/>
       <c r="D166" s="31"/>
       <c r="E166" s="31"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="28"/>
       <c r="B167" s="17"/>
       <c r="C167" s="21"/>
       <c r="D167" s="31"/>
       <c r="E167" s="31"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="28"/>
       <c r="B168" s="17"/>
       <c r="C168" s="21"/>
       <c r="D168" s="31"/>
       <c r="E168" s="31"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="28"/>
       <c r="B169" s="17"/>
       <c r="C169" s="21"/>
       <c r="D169" s="31"/>
       <c r="E169" s="31"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="28"/>
       <c r="B170" s="17"/>
       <c r="C170" s="21"/>
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="28"/>
       <c r="B171" s="17"/>
       <c r="C171" s="21"/>
       <c r="D171" s="31"/>
       <c r="E171" s="31"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="28"/>
       <c r="B172" s="17"/>
       <c r="C172" s="21"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="28"/>
       <c r="B173" s="17"/>
       <c r="C173" s="21"/>
       <c r="D173" s="31"/>
       <c r="E173" s="31"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="28"/>
       <c r="B174" s="17"/>
       <c r="C174" s="21"/>
       <c r="D174" s="31"/>
       <c r="E174" s="31"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="28"/>
       <c r="B175" s="17"/>
       <c r="C175" s="21"/>
       <c r="D175" s="31"/>
       <c r="E175" s="31"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="28"/>
       <c r="B176" s="17"/>
       <c r="C176" s="21"/>
       <c r="D176" s="31"/>
       <c r="E176" s="31"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="28"/>
       <c r="B177" s="17"/>
       <c r="C177" s="21"/>
       <c r="D177" s="31"/>
       <c r="E177" s="31"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
       <c r="B178" s="17"/>
       <c r="C178" s="21"/>
       <c r="D178" s="31"/>
       <c r="E178" s="31"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="28"/>
       <c r="B179" s="17"/>
       <c r="C179" s="21"/>
       <c r="D179" s="31"/>
       <c r="E179" s="31"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="28"/>
       <c r="B180" s="17"/>
       <c r="C180" s="21"/>
       <c r="D180" s="31"/>
       <c r="E180" s="31"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="28"/>
       <c r="B181" s="17"/>
       <c r="C181" s="21"/>
       <c r="D181" s="31"/>
       <c r="E181" s="31"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="28"/>
       <c r="B182" s="17"/>
       <c r="C182" s="21"/>
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="28"/>
       <c r="B183" s="17"/>
       <c r="C183" s="21"/>
       <c r="D183" s="31"/>
       <c r="E183" s="31"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="28"/>
       <c r="B184" s="17"/>
       <c r="C184" s="21"/>
       <c r="D184" s="31"/>
       <c r="E184" s="31"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="28"/>
       <c r="B185" s="17"/>
       <c r="C185" s="21"/>
       <c r="D185" s="31"/>
       <c r="E185" s="31"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="28"/>
       <c r="B186" s="17"/>
       <c r="C186" s="21"/>
       <c r="D186" s="31"/>
       <c r="E186" s="31"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="28"/>
       <c r="B187" s="17"/>
       <c r="C187" s="21"/>
       <c r="D187" s="31"/>
       <c r="E187" s="31"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="28"/>
       <c r="B188" s="17"/>
       <c r="C188" s="21"/>
       <c r="D188" s="31"/>
       <c r="E188" s="31"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="28"/>
       <c r="B189" s="17"/>
       <c r="C189" s="21"/>
       <c r="D189" s="31"/>
       <c r="E189" s="31"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="28"/>
       <c r="B190" s="17"/>
       <c r="C190" s="21"/>
       <c r="D190" s="31"/>
       <c r="E190" s="31"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="28"/>
       <c r="B191" s="17"/>
       <c r="C191" s="21"/>
       <c r="D191" s="31"/>
       <c r="E191" s="31"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="28"/>
       <c r="B192" s="17"/>
       <c r="C192" s="21"/>
       <c r="D192" s="31"/>
       <c r="E192" s="31"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="28"/>
       <c r="B193" s="17"/>
       <c r="C193" s="21"/>
       <c r="D193" s="31"/>
       <c r="E193" s="31"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="28"/>
       <c r="B194" s="17"/>
       <c r="C194" s="21"/>
       <c r="D194" s="31"/>
       <c r="E194" s="31"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="28"/>
       <c r="B195" s="17"/>
       <c r="C195" s="21"/>
       <c r="D195" s="31"/>
       <c r="E195" s="31"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="28"/>
       <c r="B196" s="17"/>
       <c r="C196" s="21"/>
       <c r="D196" s="31"/>
       <c r="E196" s="31"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="28"/>
       <c r="B197" s="17"/>
       <c r="C197" s="21"/>
       <c r="D197" s="31"/>
       <c r="E197" s="31"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="28"/>
       <c r="B198" s="17"/>
       <c r="C198" s="21"/>
       <c r="D198" s="31"/>
       <c r="E198" s="31"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="28"/>
       <c r="B199" s="17"/>
       <c r="C199" s="21"/>
       <c r="D199" s="31"/>
       <c r="E199" s="31"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="28"/>
       <c r="B200" s="17"/>
       <c r="C200" s="21"/>
       <c r="D200" s="31"/>
       <c r="E200" s="31"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="29"/>
       <c r="B201" s="22"/>
       <c r="C201" s="30"/>
@@ -5057,12 +5057,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="45.7265625" style="26" customWidth="1"/>
+    <col min="1" max="2" width="45.7109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
@@ -5070,803 +5070,803 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="31"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="31"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="31"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="31"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="31"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="31"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="31"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="31"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="31"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="31"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="31"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="31"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="31"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="31"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="31"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="31"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="31"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="31"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="31"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="31"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="31"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="31"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="31"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="31"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="31"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="31"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="31"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="31"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="31"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="31"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="31"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="31"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="31"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="31"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="31"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="31"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="31"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="31"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="31"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="31"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="31"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="31"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="31"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="31"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="31"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="31"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="31"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="31"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="31"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="31"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="31"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="31"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="31"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="31"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="31"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="31"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="31"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="31"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="31"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="31"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="31"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="31"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="31"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="31"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="31"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="31"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="31"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="31"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="31"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="31"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="31"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="31"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="31"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="31"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="31"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="31"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="31"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="31"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="31"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="31"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="31"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="31"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="31"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="31"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="31"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="31"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="31"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="31"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="31"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="31"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="31"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="B106" s="31"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="B107" s="31"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="B108" s="31"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="31"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="31"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="B111" s="31"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="31"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="B113" s="31"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
       <c r="B114" s="31"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
       <c r="B115" s="31"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="31"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="31"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="31"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="31"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="21"/>
       <c r="B120" s="31"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
       <c r="B121" s="31"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="21"/>
       <c r="B122" s="31"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="31"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="31"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="31"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
       <c r="B126" s="31"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="31"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
       <c r="B128" s="31"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="21"/>
       <c r="B129" s="31"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="31"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="31"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="21"/>
       <c r="B132" s="31"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="31"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
       <c r="B134" s="31"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>
       <c r="B135" s="31"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="31"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="31"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="31"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>
       <c r="B139" s="31"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>
       <c r="B140" s="31"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
       <c r="B141" s="31"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
       <c r="B142" s="31"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
       <c r="B143" s="31"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
       <c r="B144" s="31"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="31"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="21"/>
       <c r="B146" s="31"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="21"/>
       <c r="B147" s="31"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="21"/>
       <c r="B148" s="31"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="21"/>
       <c r="B149" s="31"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="21"/>
       <c r="B150" s="31"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
       <c r="B151" s="31"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="31"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="21"/>
       <c r="B153" s="31"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="21"/>
       <c r="B154" s="31"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="21"/>
       <c r="B155" s="31"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="21"/>
       <c r="B156" s="31"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="21"/>
       <c r="B157" s="31"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
       <c r="B158" s="31"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="31"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="21"/>
       <c r="B160" s="31"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="21"/>
       <c r="B161" s="31"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="21"/>
       <c r="B162" s="31"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="21"/>
       <c r="B163" s="31"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="21"/>
       <c r="B164" s="31"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
       <c r="B165" s="31"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="31"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="21"/>
       <c r="B167" s="31"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="21"/>
       <c r="B168" s="31"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="21"/>
       <c r="B169" s="31"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="21"/>
       <c r="B170" s="31"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="21"/>
       <c r="B171" s="31"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="31"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
       <c r="B173" s="31"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="21"/>
       <c r="B174" s="31"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="21"/>
       <c r="B175" s="31"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="31"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="31"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="21"/>
       <c r="B178" s="31"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="21"/>
       <c r="B179" s="31"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="21"/>
       <c r="B180" s="31"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="21"/>
       <c r="B181" s="31"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="21"/>
       <c r="B182" s="31"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="31"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="21"/>
       <c r="B184" s="31"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="21"/>
       <c r="B185" s="31"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="21"/>
       <c r="B186" s="31"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
       <c r="B187" s="31"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="21"/>
       <c r="B188" s="31"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="21"/>
       <c r="B189" s="31"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="21"/>
       <c r="B190" s="31"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="21"/>
       <c r="B191" s="31"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="21"/>
       <c r="B192" s="31"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="21"/>
       <c r="B193" s="31"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="31"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="21"/>
       <c r="B195" s="31"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="31"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="21"/>
       <c r="B197" s="31"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="21"/>
       <c r="B198" s="31"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="21"/>
       <c r="B199" s="31"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="21"/>
       <c r="B200" s="31"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="30"/>
       <c r="B201" s="31"/>
     </row>
@@ -5887,14 +5887,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="4" width="45.7265625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="45.7109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5908,1201 +5908,1201 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="20"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="17"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="17"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="17"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="17"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="17"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="17"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="17"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="17"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="17"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="17"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="17"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="17"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="17"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="17"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="17"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="17"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="17"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="17"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="17"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="17"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="17"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="17"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="17"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="17"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="17"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="17"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="17"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="17"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="17"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="17"/>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="17"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="17"/>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="17"/>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="17"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="17"/>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="17"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="17"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="17"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="17"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="17"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="17"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="17"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="17"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="17"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="17"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="17"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="17"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="17"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="17"/>
       <c r="C52" s="31"/>
       <c r="D52" s="31"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="17"/>
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="17"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="17"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="28"/>
       <c r="B56" s="17"/>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="17"/>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="17"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="17"/>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="17"/>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
       <c r="B61" s="17"/>
       <c r="C61" s="31"/>
       <c r="D61" s="31"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="17"/>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="17"/>
       <c r="C63" s="31"/>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="17"/>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="17"/>
       <c r="C65" s="31"/>
       <c r="D65" s="31"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="17"/>
       <c r="C66" s="31"/>
       <c r="D66" s="31"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="17"/>
       <c r="C67" s="31"/>
       <c r="D67" s="31"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="17"/>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="17"/>
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="17"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
       <c r="B71" s="17"/>
       <c r="C71" s="31"/>
       <c r="D71" s="31"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="17"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="17"/>
       <c r="C73" s="31"/>
       <c r="D73" s="31"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="17"/>
       <c r="C74" s="31"/>
       <c r="D74" s="31"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="17"/>
       <c r="C75" s="31"/>
       <c r="D75" s="31"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="17"/>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="17"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="17"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="17"/>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="17"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="17"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="17"/>
       <c r="C82" s="31"/>
       <c r="D82" s="31"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
       <c r="B83" s="17"/>
       <c r="C83" s="31"/>
       <c r="D83" s="31"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
       <c r="B84" s="17"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
       <c r="B85" s="17"/>
       <c r="C85" s="31"/>
       <c r="D85" s="31"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="28"/>
       <c r="B86" s="17"/>
       <c r="C86" s="31"/>
       <c r="D86" s="31"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="17"/>
       <c r="C87" s="31"/>
       <c r="D87" s="31"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="28"/>
       <c r="B88" s="17"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="28"/>
       <c r="B89" s="17"/>
       <c r="C89" s="31"/>
       <c r="D89" s="31"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="28"/>
       <c r="B90" s="17"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="28"/>
       <c r="B91" s="17"/>
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="28"/>
       <c r="B92" s="17"/>
       <c r="C92" s="31"/>
       <c r="D92" s="31"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="28"/>
       <c r="B93" s="17"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="28"/>
       <c r="B94" s="17"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="28"/>
       <c r="B95" s="17"/>
       <c r="C95" s="31"/>
       <c r="D95" s="31"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="28"/>
       <c r="B96" s="17"/>
       <c r="C96" s="31"/>
       <c r="D96" s="31"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="28"/>
       <c r="B97" s="17"/>
       <c r="C97" s="31"/>
       <c r="D97" s="31"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="28"/>
       <c r="B98" s="17"/>
       <c r="C98" s="31"/>
       <c r="D98" s="31"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="28"/>
       <c r="B99" s="17"/>
       <c r="C99" s="31"/>
       <c r="D99" s="31"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
       <c r="B100" s="17"/>
       <c r="C100" s="31"/>
       <c r="D100" s="31"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="17"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
       <c r="B102" s="17"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="28"/>
       <c r="B103" s="17"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="28"/>
       <c r="B104" s="17"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="28"/>
       <c r="B105" s="17"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
       <c r="B106" s="17"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
       <c r="B107" s="17"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="28"/>
       <c r="B108" s="17"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="17"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
       <c r="B110" s="17"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="28"/>
       <c r="B111" s="17"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="28"/>
       <c r="B112" s="17"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="28"/>
       <c r="B113" s="17"/>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="28"/>
       <c r="B114" s="17"/>
       <c r="C114" s="31"/>
       <c r="D114" s="31"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="28"/>
       <c r="B115" s="17"/>
       <c r="C115" s="31"/>
       <c r="D115" s="31"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="28"/>
       <c r="B116" s="17"/>
       <c r="C116" s="31"/>
       <c r="D116" s="31"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="28"/>
       <c r="B117" s="17"/>
       <c r="C117" s="31"/>
       <c r="D117" s="31"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="28"/>
       <c r="B118" s="17"/>
       <c r="C118" s="31"/>
       <c r="D118" s="31"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="28"/>
       <c r="B119" s="17"/>
       <c r="C119" s="31"/>
       <c r="D119" s="31"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="28"/>
       <c r="B120" s="17"/>
       <c r="C120" s="31"/>
       <c r="D120" s="31"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="28"/>
       <c r="B121" s="17"/>
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="28"/>
       <c r="B122" s="17"/>
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="28"/>
       <c r="B123" s="17"/>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="28"/>
       <c r="B124" s="17"/>
       <c r="C124" s="31"/>
       <c r="D124" s="31"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="28"/>
       <c r="B125" s="17"/>
       <c r="C125" s="31"/>
       <c r="D125" s="31"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="28"/>
       <c r="B126" s="17"/>
       <c r="C126" s="31"/>
       <c r="D126" s="31"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="28"/>
       <c r="B127" s="17"/>
       <c r="C127" s="31"/>
       <c r="D127" s="31"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="28"/>
       <c r="B128" s="17"/>
       <c r="C128" s="31"/>
       <c r="D128" s="31"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="28"/>
       <c r="B129" s="17"/>
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="28"/>
       <c r="B130" s="17"/>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="28"/>
       <c r="B131" s="17"/>
       <c r="C131" s="31"/>
       <c r="D131" s="31"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="28"/>
       <c r="B132" s="17"/>
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="28"/>
       <c r="B133" s="17"/>
       <c r="C133" s="31"/>
       <c r="D133" s="31"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="28"/>
       <c r="B134" s="17"/>
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="28"/>
       <c r="B135" s="17"/>
       <c r="C135" s="31"/>
       <c r="D135" s="31"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="28"/>
       <c r="B136" s="17"/>
       <c r="C136" s="31"/>
       <c r="D136" s="31"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
       <c r="B137" s="17"/>
       <c r="C137" s="31"/>
       <c r="D137" s="31"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="28"/>
       <c r="B138" s="17"/>
       <c r="C138" s="31"/>
       <c r="D138" s="31"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
       <c r="B139" s="17"/>
       <c r="C139" s="31"/>
       <c r="D139" s="31"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="28"/>
       <c r="B140" s="17"/>
       <c r="C140" s="31"/>
       <c r="D140" s="31"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="28"/>
       <c r="B141" s="17"/>
       <c r="C141" s="31"/>
       <c r="D141" s="31"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="28"/>
       <c r="B142" s="17"/>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="28"/>
       <c r="B143" s="17"/>
       <c r="C143" s="31"/>
       <c r="D143" s="31"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="28"/>
       <c r="B144" s="17"/>
       <c r="C144" s="31"/>
       <c r="D144" s="31"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="28"/>
       <c r="B145" s="17"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="28"/>
       <c r="B146" s="17"/>
       <c r="C146" s="31"/>
       <c r="D146" s="31"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="28"/>
       <c r="B147" s="17"/>
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="28"/>
       <c r="B148" s="17"/>
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="28"/>
       <c r="B149" s="17"/>
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="28"/>
       <c r="B150" s="17"/>
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="28"/>
       <c r="B151" s="17"/>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="28"/>
       <c r="B152" s="17"/>
       <c r="C152" s="31"/>
       <c r="D152" s="31"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="28"/>
       <c r="B153" s="17"/>
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="28"/>
       <c r="B154" s="17"/>
       <c r="C154" s="31"/>
       <c r="D154" s="31"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="28"/>
       <c r="B155" s="17"/>
       <c r="C155" s="31"/>
       <c r="D155" s="31"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="28"/>
       <c r="B156" s="17"/>
       <c r="C156" s="31"/>
       <c r="D156" s="31"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="28"/>
       <c r="B157" s="17"/>
       <c r="C157" s="31"/>
       <c r="D157" s="31"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="28"/>
       <c r="B158" s="17"/>
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="28"/>
       <c r="B159" s="17"/>
       <c r="C159" s="31"/>
       <c r="D159" s="31"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="28"/>
       <c r="B160" s="17"/>
       <c r="C160" s="31"/>
       <c r="D160" s="31"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="28"/>
       <c r="B161" s="17"/>
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="28"/>
       <c r="B162" s="17"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="28"/>
       <c r="B163" s="17"/>
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="28"/>
       <c r="B164" s="17"/>
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="28"/>
       <c r="B165" s="17"/>
       <c r="C165" s="31"/>
       <c r="D165" s="31"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="28"/>
       <c r="B166" s="17"/>
       <c r="C166" s="31"/>
       <c r="D166" s="31"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="28"/>
       <c r="B167" s="17"/>
       <c r="C167" s="31"/>
       <c r="D167" s="31"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="28"/>
       <c r="B168" s="17"/>
       <c r="C168" s="31"/>
       <c r="D168" s="31"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="28"/>
       <c r="B169" s="17"/>
       <c r="C169" s="31"/>
       <c r="D169" s="31"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="28"/>
       <c r="B170" s="17"/>
       <c r="C170" s="31"/>
       <c r="D170" s="31"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="28"/>
       <c r="B171" s="17"/>
       <c r="C171" s="31"/>
       <c r="D171" s="31"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="28"/>
       <c r="B172" s="17"/>
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="28"/>
       <c r="B173" s="17"/>
       <c r="C173" s="31"/>
       <c r="D173" s="31"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="28"/>
       <c r="B174" s="17"/>
       <c r="C174" s="31"/>
       <c r="D174" s="31"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="28"/>
       <c r="B175" s="17"/>
       <c r="C175" s="31"/>
       <c r="D175" s="31"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="28"/>
       <c r="B176" s="17"/>
       <c r="C176" s="31"/>
       <c r="D176" s="31"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="28"/>
       <c r="B177" s="17"/>
       <c r="C177" s="31"/>
       <c r="D177" s="31"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
       <c r="B178" s="17"/>
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="28"/>
       <c r="B179" s="17"/>
       <c r="C179" s="31"/>
       <c r="D179" s="31"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="28"/>
       <c r="B180" s="17"/>
       <c r="C180" s="31"/>
       <c r="D180" s="31"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="28"/>
       <c r="B181" s="17"/>
       <c r="C181" s="31"/>
       <c r="D181" s="31"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="28"/>
       <c r="B182" s="17"/>
       <c r="C182" s="31"/>
       <c r="D182" s="31"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="28"/>
       <c r="B183" s="17"/>
       <c r="C183" s="31"/>
       <c r="D183" s="31"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="28"/>
       <c r="B184" s="17"/>
       <c r="C184" s="31"/>
       <c r="D184" s="31"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="28"/>
       <c r="B185" s="17"/>
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="28"/>
       <c r="B186" s="17"/>
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="28"/>
       <c r="B187" s="17"/>
       <c r="C187" s="31"/>
       <c r="D187" s="31"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="28"/>
       <c r="B188" s="17"/>
       <c r="C188" s="31"/>
       <c r="D188" s="31"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="28"/>
       <c r="B189" s="17"/>
       <c r="C189" s="31"/>
       <c r="D189" s="31"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="28"/>
       <c r="B190" s="17"/>
       <c r="C190" s="31"/>
       <c r="D190" s="31"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="28"/>
       <c r="B191" s="17"/>
       <c r="C191" s="31"/>
       <c r="D191" s="31"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="28"/>
       <c r="B192" s="17"/>
       <c r="C192" s="31"/>
       <c r="D192" s="31"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="28"/>
       <c r="B193" s="17"/>
       <c r="C193" s="31"/>
       <c r="D193" s="31"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="28"/>
       <c r="B194" s="17"/>
       <c r="C194" s="31"/>
       <c r="D194" s="31"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="28"/>
       <c r="B195" s="17"/>
       <c r="C195" s="31"/>
       <c r="D195" s="31"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="28"/>
       <c r="B196" s="17"/>
       <c r="C196" s="31"/>
       <c r="D196" s="31"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="28"/>
       <c r="B197" s="17"/>
       <c r="C197" s="31"/>
       <c r="D197" s="31"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="28"/>
       <c r="B198" s="17"/>
       <c r="C198" s="31"/>
       <c r="D198" s="31"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="28"/>
       <c r="B199" s="17"/>
       <c r="C199" s="31"/>
       <c r="D199" s="31"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="28"/>
       <c r="B200" s="17"/>
       <c r="C200" s="31"/>
       <c r="D200" s="31"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="29"/>
       <c r="B201" s="22"/>
       <c r="C201" s="31"/>
